--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,28 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Router" sheetId="3" r:id="rId2"/>
+    <sheet name="中心区" sheetId="3" r:id="rId2"/>
+    <sheet name="Robot" sheetId="5" r:id="rId3"/>
+    <sheet name="Router" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>所属区</t>
+  </si>
+  <si>
     <t>所属进程</t>
   </si>
   <si>
-    <t>所属区</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
@@ -35,12 +50,12 @@
     <t>外网端口</t>
   </si>
   <si>
+    <t>Zone</t>
+  </si>
+  <si>
     <t>Process</t>
   </si>
   <si>
-    <t>Zone</t>
-  </si>
-  <si>
     <t>SceneType</t>
   </si>
   <si>
@@ -56,31 +71,88 @@
     <t>string</t>
   </si>
   <si>
+    <t>#20004-20100</t>
+  </si>
+  <si>
+    <t>#封测一区</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>EMail</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PaiMai</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map101</t>
+  </si>
+  <si>
+    <t>JiaYuan</t>
+  </si>
+  <si>
+    <t>Popularize</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>#封测二区</t>
+  </si>
+  <si>
+    <t>#封测三区</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Match</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
+    <t>ReCharge</t>
+  </si>
+  <si>
+    <t>Robot</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -104,20 +176,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -601,141 +687,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -744,6 +827,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,213 +1202,1461 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="A3:O443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="12.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="5">
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13">
+        <v>101</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8">
+        <v>30325</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="3:15">
+      <c r="C8" s="13">
+        <v>102</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10">
+        <v>30326</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="3:15">
+      <c r="C9" s="13">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8">
+        <v>30327</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="13">
+        <v>104</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="13">
+        <v>105</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="13">
+        <v>106</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="13">
+        <v>107</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="13">
+        <v>108</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="13">
+        <v>109</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="13">
+        <v>110</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="13">
+        <v>111</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="13">
+        <v>112</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="13">
+        <v>113</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="13">
+        <v>114</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="13">
+        <v>115</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="13">
+        <v>116</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="13">
+        <v>117</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13">
+        <v>201</v>
+      </c>
+      <c r="D25" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="13">
+        <v>202</v>
+      </c>
+      <c r="D26" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="5">
+      <c r="G26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="13">
+        <v>203</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="8">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="3:8">
+      <c r="C28" s="13">
+        <v>204</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" s="7" customFormat="1" spans="3:8">
+      <c r="C29" s="13">
+        <v>205</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="3:8">
+      <c r="C30" s="13">
+        <v>206</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="3:8">
+      <c r="C31" s="13">
+        <v>207</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="3:8">
+      <c r="C32" s="13">
+        <v>208</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="3:8">
+      <c r="C33" s="13">
+        <v>209</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="3:8">
+      <c r="C34" s="13">
+        <v>210</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="3:8">
+      <c r="C35" s="13">
+        <v>211</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="3:8">
+      <c r="C36" s="13">
+        <v>212</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="3:8">
+      <c r="C37" s="13">
+        <v>213</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="3:8">
+      <c r="C38" s="13">
+        <v>214</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="3:8">
+      <c r="C39" s="13">
+        <v>215</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="3:8">
+      <c r="C40" s="13">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="3:8">
+      <c r="C41" s="13">
+        <v>217</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" s="7" customFormat="1"/>
+    <row r="43" s="7" customFormat="1" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="13">
+        <v>301</v>
+      </c>
+      <c r="D43" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="13">
+        <v>302</v>
+      </c>
+      <c r="D44" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5">
-        <v>30004</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H44" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:8">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="13">
+        <v>303</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="H45" s="8">
+        <v>20347</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="3:8">
+      <c r="C46" s="13">
+        <v>304</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="3:8">
+      <c r="C47" s="13">
+        <v>305</v>
+      </c>
+      <c r="D47" s="10">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="G47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="3:8">
+      <c r="C48" s="13">
+        <v>306</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="G48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="3:8">
+      <c r="C49" s="13">
+        <v>307</v>
+      </c>
+      <c r="D49" s="10">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="3:8">
+      <c r="C50" s="13">
+        <v>308</v>
+      </c>
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="3:8">
+      <c r="C51" s="13">
+        <v>309</v>
+      </c>
+      <c r="D51" s="10">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+      <c r="C52" s="13">
+        <v>310</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="3:8">
+      <c r="C53" s="13">
+        <v>311</v>
+      </c>
+      <c r="D53" s="10">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" s="7" customFormat="1" spans="3:8">
+      <c r="C54" s="13">
+        <v>312</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="3:8">
+      <c r="C55" s="13">
+        <v>313</v>
+      </c>
+      <c r="D55" s="10">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="3:8">
+      <c r="C56" s="13">
+        <v>314</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" s="7" customFormat="1" spans="3:8">
+      <c r="C57" s="13">
+        <v>315</v>
+      </c>
+      <c r="D57" s="10">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="3:8">
+      <c r="C58" s="13">
+        <v>316</v>
+      </c>
+      <c r="D58" s="10">
+        <v>3</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="3:8">
+      <c r="C59" s="13">
+        <v>317</v>
+      </c>
+      <c r="D59" s="10">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1"/>
+    <row r="62" s="7" customFormat="1"/>
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="7" customFormat="1"/>
+    <row r="65" s="7" customFormat="1"/>
+    <row r="66" s="7" customFormat="1"/>
+    <row r="67" s="7" customFormat="1"/>
+    <row r="68" s="7" customFormat="1"/>
+    <row r="69" s="7" customFormat="1"/>
+    <row r="70" s="7" customFormat="1"/>
+    <row r="71" s="7" customFormat="1"/>
+    <row r="72" s="7" customFormat="1"/>
+    <row r="73" s="7" customFormat="1"/>
+    <row r="74" s="7" customFormat="1"/>
+    <row r="75" s="7" customFormat="1"/>
+    <row r="76" s="7" customFormat="1"/>
+    <row r="77" s="7" customFormat="1"/>
+    <row r="78" s="7" customFormat="1"/>
+    <row r="79" s="7" customFormat="1"/>
+    <row r="80" s="7" customFormat="1"/>
+    <row r="81" s="7" customFormat="1"/>
+    <row r="82" s="7" customFormat="1"/>
+    <row r="83" s="7" customFormat="1"/>
+    <row r="84" s="7" customFormat="1"/>
+    <row r="85" s="7" customFormat="1"/>
+    <row r="86" s="7" customFormat="1"/>
+    <row r="87" s="7" customFormat="1"/>
+    <row r="88" s="7" customFormat="1"/>
+    <row r="89" s="7" customFormat="1"/>
+    <row r="90" s="7" customFormat="1"/>
+    <row r="91" s="7" customFormat="1"/>
+    <row r="92" s="7" customFormat="1"/>
+    <row r="93" s="7" customFormat="1"/>
+    <row r="94" s="7" customFormat="1"/>
+    <row r="95" s="7" customFormat="1"/>
+    <row r="96" s="7" customFormat="1"/>
+    <row r="97" s="7" customFormat="1"/>
+    <row r="98" s="7" customFormat="1"/>
+    <row r="99" s="7" customFormat="1"/>
+    <row r="100" s="7" customFormat="1"/>
+    <row r="101" s="7" customFormat="1"/>
+    <row r="102" s="7" customFormat="1"/>
+    <row r="103" s="7" customFormat="1"/>
+    <row r="104" s="7" customFormat="1"/>
+    <row r="105" s="7" customFormat="1"/>
+    <row r="106" s="7" customFormat="1"/>
+    <row r="107" s="7" customFormat="1"/>
+    <row r="108" s="7" customFormat="1"/>
+    <row r="109" s="7" customFormat="1"/>
+    <row r="110" s="7" customFormat="1"/>
+    <row r="111" s="7" customFormat="1"/>
+    <row r="112" s="7" customFormat="1"/>
+    <row r="113" s="7" customFormat="1"/>
+    <row r="114" s="7" customFormat="1"/>
+    <row r="115" s="7" customFormat="1"/>
+    <row r="116" s="7" customFormat="1"/>
+    <row r="117" s="7" customFormat="1"/>
+    <row r="118" s="7" customFormat="1"/>
+    <row r="119" s="7" customFormat="1"/>
+    <row r="120" s="7" customFormat="1"/>
+    <row r="121" s="7" customFormat="1"/>
+    <row r="122" s="7" customFormat="1"/>
+    <row r="123" s="7" customFormat="1"/>
+    <row r="124" s="7" customFormat="1"/>
+    <row r="125" s="7" customFormat="1"/>
+    <row r="126" s="7" customFormat="1"/>
+    <row r="127" s="7" customFormat="1"/>
+    <row r="128" s="7" customFormat="1"/>
+    <row r="129" s="7" customFormat="1"/>
+    <row r="130" s="7" customFormat="1"/>
+    <row r="131" s="7" customFormat="1"/>
+    <row r="132" s="7" customFormat="1"/>
+    <row r="133" s="7" customFormat="1"/>
+    <row r="134" s="7" customFormat="1"/>
+    <row r="135" s="7" customFormat="1"/>
+    <row r="136" s="7" customFormat="1"/>
+    <row r="137" s="7" customFormat="1"/>
+    <row r="138" s="7" customFormat="1"/>
+    <row r="139" s="7" customFormat="1"/>
+    <row r="140" s="7" customFormat="1"/>
+    <row r="141" s="7" customFormat="1"/>
+    <row r="142" s="7" customFormat="1"/>
+    <row r="143" s="7" customFormat="1"/>
+    <row r="144" s="7" customFormat="1"/>
+    <row r="145" s="7" customFormat="1"/>
+    <row r="146" s="7" customFormat="1"/>
+    <row r="147" s="7" customFormat="1"/>
+    <row r="148" s="7" customFormat="1"/>
+    <row r="149" s="7" customFormat="1"/>
+    <row r="150" s="7" customFormat="1"/>
+    <row r="151" s="7" customFormat="1"/>
+    <row r="152" s="7" customFormat="1"/>
+    <row r="153" s="7" customFormat="1"/>
+    <row r="154" s="7" customFormat="1"/>
+    <row r="155" s="7" customFormat="1"/>
+    <row r="156" s="7" customFormat="1"/>
+    <row r="157" s="7" customFormat="1"/>
+    <row r="158" s="7" customFormat="1"/>
+    <row r="159" s="7" customFormat="1"/>
+    <row r="160" s="7" customFormat="1"/>
+    <row r="161" s="7" customFormat="1"/>
+    <row r="162" s="7" customFormat="1"/>
+    <row r="163" s="7" customFormat="1"/>
+    <row r="164" s="7" customFormat="1"/>
+    <row r="165" s="7" customFormat="1"/>
+    <row r="166" s="7" customFormat="1"/>
+    <row r="167" s="7" customFormat="1"/>
+    <row r="168" s="7" customFormat="1"/>
+    <row r="169" s="7" customFormat="1"/>
+    <row r="170" s="7" customFormat="1"/>
+    <row r="171" s="7" customFormat="1"/>
+    <row r="172" s="7" customFormat="1"/>
+    <row r="173" s="7" customFormat="1"/>
+    <row r="174" s="7" customFormat="1"/>
+    <row r="175" s="7" customFormat="1"/>
+    <row r="176" s="7" customFormat="1"/>
+    <row r="177" s="7" customFormat="1"/>
+    <row r="178" s="7" customFormat="1"/>
+    <row r="179" s="7" customFormat="1"/>
+    <row r="180" s="7" customFormat="1"/>
+    <row r="181" s="7" customFormat="1"/>
+    <row r="182" s="7" customFormat="1"/>
+    <row r="183" s="7" customFormat="1"/>
+    <row r="184" s="7" customFormat="1"/>
+    <row r="185" s="7" customFormat="1"/>
+    <row r="186" s="7" customFormat="1"/>
+    <row r="187" s="7" customFormat="1"/>
+    <row r="188" s="7" customFormat="1"/>
+    <row r="189" s="7" customFormat="1"/>
+    <row r="190" s="7" customFormat="1"/>
+    <row r="191" s="7" customFormat="1"/>
+    <row r="192" s="7" customFormat="1"/>
+    <row r="193" s="7" customFormat="1"/>
+    <row r="194" s="7" customFormat="1"/>
+    <row r="195" s="7" customFormat="1"/>
+    <row r="196" s="7" customFormat="1"/>
+    <row r="197" s="7" customFormat="1"/>
+    <row r="198" s="7" customFormat="1"/>
+    <row r="199" s="7" customFormat="1"/>
+    <row r="200" s="7" customFormat="1"/>
+    <row r="201" s="7" customFormat="1"/>
+    <row r="202" s="7" customFormat="1"/>
+    <row r="203" s="7" customFormat="1"/>
+    <row r="204" s="7" customFormat="1"/>
+    <row r="205" s="7" customFormat="1"/>
+    <row r="206" s="7" customFormat="1"/>
+    <row r="207" s="7" customFormat="1"/>
+    <row r="208" s="7" customFormat="1"/>
+    <row r="209" s="7" customFormat="1"/>
+    <row r="210" s="7" customFormat="1"/>
+    <row r="211" s="7" customFormat="1"/>
+    <row r="212" s="7" customFormat="1"/>
+    <row r="213" s="7" customFormat="1"/>
+    <row r="214" s="7" customFormat="1"/>
+    <row r="215" s="7" customFormat="1"/>
+    <row r="216" s="7" customFormat="1"/>
+    <row r="217" s="7" customFormat="1"/>
+    <row r="218" s="7" customFormat="1"/>
+    <row r="219" s="7" customFormat="1"/>
+    <row r="220" s="7" customFormat="1"/>
+    <row r="221" s="7" customFormat="1"/>
+    <row r="222" s="7" customFormat="1"/>
+    <row r="223" s="7" customFormat="1"/>
+    <row r="224" s="7" customFormat="1"/>
+    <row r="225" s="7" customFormat="1"/>
+    <row r="226" s="7" customFormat="1"/>
+    <row r="227" s="7" customFormat="1"/>
+    <row r="228" s="7" customFormat="1"/>
+    <row r="229" s="7" customFormat="1"/>
+    <row r="230" s="7" customFormat="1"/>
+    <row r="231" s="7" customFormat="1"/>
+    <row r="232" s="7" customFormat="1"/>
+    <row r="233" s="7" customFormat="1"/>
+    <row r="234" s="7" customFormat="1"/>
+    <row r="235" s="7" customFormat="1"/>
+    <row r="236" s="7" customFormat="1"/>
+    <row r="237" s="7" customFormat="1"/>
+    <row r="238" s="7" customFormat="1"/>
+    <row r="239" s="7" customFormat="1"/>
+    <row r="240" s="7" customFormat="1"/>
+    <row r="241" s="7" customFormat="1"/>
+    <row r="242" s="7" customFormat="1"/>
+    <row r="243" s="7" customFormat="1"/>
+    <row r="244" s="7" customFormat="1"/>
+    <row r="245" s="7" customFormat="1"/>
+    <row r="246" s="7" customFormat="1"/>
+    <row r="247" s="7" customFormat="1"/>
+    <row r="248" s="7" customFormat="1"/>
+    <row r="249" s="7" customFormat="1"/>
+    <row r="250" s="7" customFormat="1"/>
+    <row r="251" s="7" customFormat="1"/>
+    <row r="252" s="7" customFormat="1"/>
+    <row r="253" s="7" customFormat="1"/>
+    <row r="254" s="7" customFormat="1"/>
+    <row r="255" s="7" customFormat="1"/>
+    <row r="256" s="7" customFormat="1"/>
+    <row r="257" s="7" customFormat="1"/>
+    <row r="258" s="7" customFormat="1"/>
+    <row r="259" s="7" customFormat="1"/>
+    <row r="260" s="7" customFormat="1"/>
+    <row r="261" s="7" customFormat="1"/>
+    <row r="262" s="7" customFormat="1"/>
+    <row r="263" s="7" customFormat="1"/>
+    <row r="264" s="7" customFormat="1"/>
+    <row r="265" s="7" customFormat="1"/>
+    <row r="266" s="7" customFormat="1"/>
+    <row r="267" s="7" customFormat="1"/>
+    <row r="268" s="7" customFormat="1"/>
+    <row r="269" s="7" customFormat="1"/>
+    <row r="270" s="7" customFormat="1"/>
+    <row r="271" s="7" customFormat="1"/>
+    <row r="272" s="7" customFormat="1"/>
+    <row r="273" s="7" customFormat="1"/>
+    <row r="274" s="7" customFormat="1"/>
+    <row r="275" s="7" customFormat="1"/>
+    <row r="276" s="7" customFormat="1"/>
+    <row r="277" s="7" customFormat="1"/>
+    <row r="278" s="7" customFormat="1"/>
+    <row r="279" s="7" customFormat="1"/>
+    <row r="280" s="7" customFormat="1"/>
+    <row r="281" s="7" customFormat="1"/>
+    <row r="282" s="7" customFormat="1"/>
+    <row r="283" s="7" customFormat="1"/>
+    <row r="284" s="7" customFormat="1"/>
+    <row r="285" s="7" customFormat="1"/>
+    <row r="286" s="7" customFormat="1"/>
+    <row r="287" s="7" customFormat="1"/>
+    <row r="288" s="7" customFormat="1"/>
+    <row r="289" s="7" customFormat="1"/>
+    <row r="290" s="7" customFormat="1"/>
+    <row r="291" s="7" customFormat="1"/>
+    <row r="292" s="7" customFormat="1"/>
+    <row r="293" s="7" customFormat="1"/>
+    <row r="294" s="7" customFormat="1"/>
+    <row r="295" s="7" customFormat="1"/>
+    <row r="296" s="7" customFormat="1"/>
+    <row r="297" s="7" customFormat="1"/>
+    <row r="298" s="7" customFormat="1"/>
+    <row r="299" s="7" customFormat="1"/>
+    <row r="300" s="7" customFormat="1"/>
+    <row r="301" s="7" customFormat="1"/>
+    <row r="302" s="7" customFormat="1"/>
+    <row r="303" s="7" customFormat="1"/>
+    <row r="304" s="7" customFormat="1"/>
+    <row r="305" s="7" customFormat="1"/>
+    <row r="306" s="7" customFormat="1"/>
+    <row r="307" s="7" customFormat="1"/>
+    <row r="308" s="7" customFormat="1"/>
+    <row r="309" s="7" customFormat="1"/>
+    <row r="310" s="7" customFormat="1"/>
+    <row r="311" s="7" customFormat="1"/>
+    <row r="312" s="7" customFormat="1"/>
+    <row r="313" s="7" customFormat="1"/>
+    <row r="314" s="7" customFormat="1"/>
+    <row r="315" s="7" customFormat="1"/>
+    <row r="316" s="7" customFormat="1"/>
+    <row r="317" s="7" customFormat="1"/>
+    <row r="318" s="7" customFormat="1"/>
+    <row r="319" s="7" customFormat="1"/>
+    <row r="320" s="7" customFormat="1"/>
+    <row r="321" s="7" customFormat="1"/>
+    <row r="322" s="7" customFormat="1"/>
+    <row r="323" s="7" customFormat="1"/>
+    <row r="324" s="7" customFormat="1"/>
+    <row r="325" s="7" customFormat="1"/>
+    <row r="326" s="7" customFormat="1"/>
+    <row r="327" s="7" customFormat="1"/>
+    <row r="328" s="7" customFormat="1"/>
+    <row r="329" s="7" customFormat="1"/>
+    <row r="330" s="7" customFormat="1"/>
+    <row r="331" s="7" customFormat="1"/>
+    <row r="332" s="7" customFormat="1"/>
+    <row r="333" s="7" customFormat="1"/>
+    <row r="334" s="7" customFormat="1"/>
+    <row r="335" s="7" customFormat="1"/>
+    <row r="336" s="7" customFormat="1"/>
+    <row r="337" s="7" customFormat="1"/>
+    <row r="338" s="7" customFormat="1"/>
+    <row r="339" s="7" customFormat="1"/>
+    <row r="340" s="7" customFormat="1"/>
+    <row r="341" s="7" customFormat="1"/>
+    <row r="342" s="7" customFormat="1"/>
+    <row r="343" s="7" customFormat="1"/>
+    <row r="344" s="7" customFormat="1"/>
+    <row r="345" s="7" customFormat="1"/>
+    <row r="346" s="7" customFormat="1"/>
+    <row r="347" s="7" customFormat="1"/>
+    <row r="348" s="7" customFormat="1"/>
+    <row r="349" s="7" customFormat="1"/>
+    <row r="350" s="7" customFormat="1"/>
+    <row r="351" s="7" customFormat="1"/>
+    <row r="352" s="7" customFormat="1"/>
+    <row r="353" s="7" customFormat="1"/>
+    <row r="354" s="7" customFormat="1"/>
+    <row r="355" s="7" customFormat="1"/>
+    <row r="356" s="7" customFormat="1"/>
+    <row r="357" s="7" customFormat="1"/>
+    <row r="358" s="7" customFormat="1"/>
+    <row r="359" s="7" customFormat="1"/>
+    <row r="360" s="7" customFormat="1"/>
+    <row r="361" s="7" customFormat="1"/>
+    <row r="362" s="7" customFormat="1"/>
+    <row r="363" s="7" customFormat="1"/>
+    <row r="364" s="7" customFormat="1"/>
+    <row r="365" s="7" customFormat="1"/>
+    <row r="366" s="7" customFormat="1"/>
+    <row r="367" s="7" customFormat="1"/>
+    <row r="368" s="7" customFormat="1"/>
+    <row r="369" s="7" customFormat="1"/>
+    <row r="370" s="7" customFormat="1"/>
+    <row r="371" s="7" customFormat="1"/>
+    <row r="372" s="7" customFormat="1"/>
+    <row r="373" s="7" customFormat="1"/>
+    <row r="374" s="7" customFormat="1"/>
+    <row r="375" s="7" customFormat="1"/>
+    <row r="376" s="7" customFormat="1"/>
+    <row r="377" s="7" customFormat="1"/>
+    <row r="378" s="7" customFormat="1"/>
+    <row r="379" s="7" customFormat="1"/>
+    <row r="380" s="7" customFormat="1"/>
+    <row r="381" s="7" customFormat="1"/>
+    <row r="382" s="7" customFormat="1"/>
+    <row r="383" s="7" customFormat="1"/>
+    <row r="384" s="7" customFormat="1"/>
+    <row r="385" s="7" customFormat="1"/>
+    <row r="386" s="7" customFormat="1"/>
+    <row r="387" s="7" customFormat="1"/>
+    <row r="388" s="7" customFormat="1"/>
+    <row r="389" s="7" customFormat="1"/>
+    <row r="390" s="7" customFormat="1"/>
+    <row r="391" s="7" customFormat="1"/>
+    <row r="392" s="7" customFormat="1"/>
+    <row r="393" s="7" customFormat="1"/>
+    <row r="394" s="7" customFormat="1"/>
+    <row r="395" s="7" customFormat="1"/>
+    <row r="396" s="7" customFormat="1"/>
+    <row r="397" s="7" customFormat="1"/>
+    <row r="398" s="7" customFormat="1"/>
+    <row r="399" s="7" customFormat="1"/>
+    <row r="400" s="7" customFormat="1"/>
+    <row r="401" s="7" customFormat="1"/>
+    <row r="402" s="7" customFormat="1"/>
+    <row r="403" s="7" customFormat="1"/>
+    <row r="404" s="7" customFormat="1"/>
+    <row r="405" s="7" customFormat="1"/>
+    <row r="406" s="7" customFormat="1"/>
+    <row r="407" s="7" customFormat="1"/>
+    <row r="408" s="7" customFormat="1"/>
+    <row r="409" s="7" customFormat="1"/>
+    <row r="410" s="7" customFormat="1"/>
+    <row r="411" s="7" customFormat="1"/>
+    <row r="412" s="7" customFormat="1"/>
+    <row r="413" s="7" customFormat="1"/>
+    <row r="414" s="7" customFormat="1"/>
+    <row r="415" s="7" customFormat="1"/>
+    <row r="416" s="7" customFormat="1"/>
+    <row r="417" s="7" customFormat="1"/>
+    <row r="418" s="7" customFormat="1"/>
+    <row r="419" s="7" customFormat="1"/>
+    <row r="420" s="7" customFormat="1"/>
+    <row r="421" s="7" customFormat="1"/>
+    <row r="422" s="7" customFormat="1"/>
+    <row r="423" s="7" customFormat="1"/>
+    <row r="424" s="7" customFormat="1"/>
+    <row r="425" s="7" customFormat="1"/>
+    <row r="426" s="7" customFormat="1"/>
+    <row r="427" s="7" customFormat="1"/>
+    <row r="428" s="7" customFormat="1"/>
+    <row r="429" s="7" customFormat="1"/>
+    <row r="430" s="7" customFormat="1"/>
+    <row r="431" s="7" customFormat="1"/>
+    <row r="432" s="7" customFormat="1"/>
+    <row r="433" s="7" customFormat="1"/>
+    <row r="434" s="7" customFormat="1"/>
+    <row r="435" s="7" customFormat="1"/>
+    <row r="436" s="7" customFormat="1"/>
+    <row r="437" s="7" customFormat="1"/>
+    <row r="438" s="7" customFormat="1"/>
+    <row r="439" s="7" customFormat="1"/>
+    <row r="440" s="7" customFormat="1"/>
+    <row r="441" s="7" customFormat="1"/>
+    <row r="442" s="7" customFormat="1" spans="3:8">
+      <c r="C442" s="11"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+      <c r="H442" s="8"/>
+    </row>
+    <row r="443" s="7" customFormat="1" spans="3:8">
+      <c r="C443" s="11"/>
+      <c r="D443" s="8"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="8"/>
+      <c r="G443" s="8"/>
+      <c r="H443" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,185 +2668,567 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>300</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5">
-        <v>30300</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
-      <c r="C7" s="5">
-        <v>301</v>
-      </c>
-      <c r="D7" s="5">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5">
-        <v>30301</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
-      <c r="C8" s="5">
-        <v>302</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5">
-        <v>30302</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
-      <c r="C9" s="5">
-        <v>303</v>
-      </c>
-      <c r="D9" s="5">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5">
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
-      <c r="C10" s="5">
-        <v>304</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5">
-        <v>30304</v>
+    <row r="6" s="6" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C6" s="10">
+        <v>1000201</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="10">
+        <v>30310</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C7" s="10">
+        <v>1000202</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="10">
+        <v>30311</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" ht="14.25" spans="3:8">
+      <c r="C8" s="10">
+        <v>1000203</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:7">
+      <c r="C9" s="10">
+        <v>1000204</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1000301</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1000400</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5">
+        <v>1000401</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>1000402</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <v>1000403</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5">
+        <v>1000404</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="5">
+        <v>30304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>ReCharge</t>
   </si>
   <si>
-    <t>Robot</t>
+    <t>RobotManager</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -2854,8 +2854,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3021,8 +3021,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -116,22 +116,28 @@
     <t>Union</t>
   </si>
   <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map101</t>
+  </si>
+  <si>
+    <t>JiaYuan</t>
+  </si>
+  <si>
+    <t>Popularize</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
     <t>FubenCenter</t>
   </si>
   <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map101</t>
-  </si>
-  <si>
-    <t>JiaYuan</t>
-  </si>
-  <si>
-    <t>Popularize</t>
-  </si>
-  <si>
-    <t>Solo</t>
+    <t>FubenCenter1</t>
+  </si>
+  <si>
+    <t>FubenCenter2</t>
   </si>
   <si>
     <t>#封测二区</t>
@@ -1202,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O443"/>
+  <dimension ref="A3:O445"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1532,31 +1538,31 @@
       <c r="C19" s="13">
         <v>113</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="13">
         <v>114</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>30</v>
@@ -1566,7 +1572,7 @@
       <c r="C21" s="13">
         <v>115</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>1</v>
       </c>
       <c r="E21" s="10">
@@ -1583,10 +1589,10 @@
       <c r="C22" s="13">
         <v>116</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -1603,52 +1609,44 @@
       <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="13">
+        <v>118</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="G24" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="13">
         <v>201</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="13">
-        <v>202</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1660,55 +1658,59 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="13">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="10">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13">
+        <v>203</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>20337</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="3:8">
-      <c r="C28" s="13">
-        <v>204</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="8"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="3:8">
       <c r="C29" s="13">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -1717,16 +1719,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="3:8">
       <c r="C30" s="13">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -1735,52 +1737,52 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="3:8">
       <c r="C31" s="13">
-        <v>207</v>
-      </c>
-      <c r="D31" s="10">
+        <v>206</v>
+      </c>
+      <c r="D31" s="8">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="3:8">
       <c r="C32" s="13">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="3:8">
       <c r="C33" s="13">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="10">
         <v>2</v>
@@ -1789,88 +1791,88 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="3:8">
       <c r="C34" s="13">
-        <v>210</v>
-      </c>
-      <c r="D34" s="10">
+        <v>209</v>
+      </c>
+      <c r="D34" s="8">
         <v>2</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="3:8">
       <c r="C35" s="13">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="10">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" s="7" customFormat="1" spans="3:8">
       <c r="C36" s="13">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" s="7" customFormat="1" spans="3:8">
       <c r="C37" s="13">
-        <v>213</v>
-      </c>
-      <c r="D37" s="10">
+        <v>212</v>
+      </c>
+      <c r="D37" s="8">
         <v>2</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="3:8">
       <c r="C38" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
@@ -1879,16 +1881,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="3:8">
       <c r="C39" s="13">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
@@ -1897,34 +1899,34 @@
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="3:8">
       <c r="C40" s="13">
-        <v>216</v>
-      </c>
-      <c r="D40" s="10">
+        <v>215</v>
+      </c>
+      <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="3:8">
       <c r="C41" s="13">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
@@ -1933,84 +1935,83 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="3:8">
+      <c r="C42" s="13">
+        <v>217</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="3:7">
+      <c r="C43" s="13">
+        <v>218</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" s="7" customFormat="1"/>
-    <row r="43" s="7" customFormat="1" spans="1:8">
-      <c r="A43" s="6" t="s">
+      <c r="G43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="13">
+    </row>
+    <row r="44" s="7" customFormat="1" spans="3:7">
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="13">
         <v>301</v>
-      </c>
-      <c r="D43" s="10">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="13">
-        <v>302</v>
-      </c>
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="13">
-        <v>303</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="10">
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="8">
-        <v>20347</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="3:8">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="13">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D46" s="10">
         <v>3</v>
@@ -2019,34 +2020,40 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="3:8">
+        <v>17</v>
+      </c>
+      <c r="H46" s="10">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="13">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H47" s="8">
+        <v>20347</v>
+      </c>
     </row>
     <row r="48" s="7" customFormat="1" spans="3:8">
       <c r="C48" s="13">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2055,34 +2062,34 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="3:8">
       <c r="C49" s="13">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D49" s="10">
         <v>3</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="10">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="3:8">
       <c r="C50" s="13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D50" s="10">
         <v>3</v>
@@ -2091,34 +2098,34 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="3:8">
       <c r="C51" s="13">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
+    <row r="52" s="7" customFormat="1" spans="3:8">
       <c r="C52" s="13">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -2127,34 +2134,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="3:8">
       <c r="C53" s="13">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D53" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="10">
         <v>1</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="7" customFormat="1" spans="3:8">
+    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
       <c r="C54" s="13">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -2163,70 +2170,70 @@
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="3:8">
       <c r="C55" s="13">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="3:8">
       <c r="C56" s="13">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D56" s="10">
         <v>3</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="10">
         <v>1</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="3:8">
       <c r="C57" s="13">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D57" s="10">
         <v>3</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" s="7" customFormat="1" spans="3:8">
       <c r="C58" s="13">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D58" s="10">
         <v>3</v>
@@ -2235,34 +2242,84 @@
         <v>1</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" s="7" customFormat="1" spans="3:8">
       <c r="C59" s="13">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D59" s="10">
         <v>3</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="10">
         <v>1</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="3:8">
+      <c r="C60" s="13">
+        <v>316</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" s="7" customFormat="1" spans="3:8">
+      <c r="C61" s="13">
+        <v>317</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" s="7" customFormat="1" spans="3:7">
+      <c r="C62" s="13">
+        <v>318</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1"/>
-    <row r="62" s="7" customFormat="1"/>
+      <c r="G62" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="63" s="7" customFormat="1"/>
     <row r="64" s="7" customFormat="1"/>
     <row r="65" s="7" customFormat="1"/>
@@ -2642,21 +2699,23 @@
     <row r="439" s="7" customFormat="1"/>
     <row r="440" s="7" customFormat="1"/>
     <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1" spans="3:8">
-      <c r="C442" s="11"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="8"/>
-      <c r="H442" s="8"/>
-    </row>
-    <row r="443" s="7" customFormat="1" spans="3:8">
-      <c r="C443" s="11"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
-      <c r="G443" s="8"/>
-      <c r="H443" s="8"/>
+    <row r="442" s="7" customFormat="1"/>
+    <row r="443" s="7" customFormat="1"/>
+    <row r="444" s="7" customFormat="1" spans="3:8">
+      <c r="C444" s="11"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="8"/>
+      <c r="H444" s="8"/>
+    </row>
+    <row r="445" s="7" customFormat="1" spans="3:8">
+      <c r="C445" s="11"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
+      <c r="H445" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,10 +2837,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -2798,10 +2857,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -2818,10 +2877,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2836,10 +2895,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +2913,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2963,10 +3022,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3130,10 +3189,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3152,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3174,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3196,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3218,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A3:O445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3080,8 +3080,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>43</v>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>44</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>44</v>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>44</v>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>44</v>
